--- a/2016년 재료비 9월/미술 재료비.xlsx
+++ b/2016년 재료비 9월/미술 재료비.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="미술 재료비" sheetId="1" r:id="rId1"/>
-    <s:sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <s:sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="120" yWindow="555" windowWidth="20175" windowHeight="13500"/>
+  </bookViews>
+  <sheets>
+    <sheet name="미술 재료비" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>주야</t>
   </si>
@@ -140,71 +140,57 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="General&quot;학년&quot;" numFmtId="164"/>
-    <numFmt formatCode="General&quot;반&quot;" numFmtId="165"/>
+    <numFmt numFmtId="176" formatCode="General&quot;학년&quot;"/>
+    <numFmt numFmtId="177" formatCode="General&quot;반&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="맑은 고딕"/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="8"/>
     </font>
     <font>
-      <name val="맑은 고딕"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="굴림체"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
-      <name val="굴림"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="굴림체"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <color rgb="FF000000"/>
-      <sz val="13"/>
     </font>
     <font>
-      <name val="굴림"/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="굴림체"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="굴림체"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -254,46 +240,46 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="표준" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -581,764 +567,745 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="10" width="10.125"/>
-    <col customWidth="1" max="2" min="2" style="10" width="10.375"/>
-    <col customWidth="1" max="3" min="3" style="10" width="10.625"/>
-    <col customWidth="1" max="4" min="4" style="10" width="11"/>
-    <col customWidth="1" max="5" min="5" style="10" width="13.25"/>
-    <col customWidth="1" max="6" min="6" style="10" width="13.625"/>
-    <col customWidth="1" max="7" min="7" style="10" width="16.375"/>
+    <col min="1" max="1" width="10.125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c s="9" r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c s="9" r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c s="9" r="C1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c s="9" r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c s="9" r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c s="9" r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c s="9" r="G1" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c s="3" r="H1" t="n"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:10">
-      <c s="4" r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c s="5" r="D2" t="n">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
         <v>15</v>
       </c>
-      <c s="4" r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c s="6" r="F2" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G2" t="n"/>
-      <c s="3" r="H2" t="n"/>
+      <c r="F2" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:10">
-      <c s="4" r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c s="5" r="D3" t="n">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
         <v>20</v>
       </c>
-      <c s="4" r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c s="6" r="F3" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G3" t="n"/>
-      <c s="3" r="H3" t="n"/>
+      <c r="F3" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:10">
-      <c s="4" r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c s="5" r="D4" t="n">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
         <v>23</v>
       </c>
-      <c s="4" r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c s="6" r="F4" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G4" t="n"/>
-      <c s="3" r="H4" t="n"/>
+      <c r="F4" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:10">
-      <c s="4" r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C5" t="n">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
         <v>2</v>
       </c>
-      <c s="5" r="D5" t="n">
+      <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c s="4" r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c s="6" r="F5" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G5" t="n"/>
-      <c s="3" r="H5" t="n"/>
+      <c r="F5" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:10">
-      <c s="4" r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C6" t="n">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
         <v>2</v>
       </c>
-      <c s="5" r="D6" t="n">
-        <v>7</v>
-      </c>
-      <c s="4" r="E6" t="s">
+      <c r="D6" s="5">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c s="6" r="F6" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G6" t="n"/>
-      <c s="3" r="H6" t="n"/>
+      <c r="F6" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c s="4" r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C7" t="n">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
         <v>2</v>
       </c>
-      <c s="5" r="D7" t="n">
+      <c r="D7" s="5">
         <v>11</v>
       </c>
-      <c s="4" r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c s="6" r="F7" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G7" t="n"/>
-      <c s="3" r="H7" t="n"/>
+      <c r="F7" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c s="4" r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C8" t="n">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
         <v>2</v>
       </c>
-      <c s="5" r="D8" t="n">
+      <c r="D8" s="5">
         <v>14</v>
       </c>
-      <c s="4" r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c s="6" r="F8" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G8" t="n"/>
-      <c s="3" r="H8" t="n"/>
+      <c r="F8" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c s="4" r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C9" t="n">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
         <v>2</v>
       </c>
-      <c s="5" r="D9" t="n">
+      <c r="D9" s="5">
         <v>18</v>
       </c>
-      <c s="4" r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
-      <c s="6" r="F9" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G9" t="n"/>
-      <c s="3" r="H9" t="n"/>
-      <c s="2" r="I9" t="n"/>
-      <c s="1" r="J9" t="n"/>
+      <c r="F9" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
-      <c s="4" r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C10" t="n">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
         <v>3</v>
       </c>
-      <c s="5" r="D10" t="n">
+      <c r="D10" s="5">
         <v>3</v>
       </c>
-      <c s="4" r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>16</v>
       </c>
-      <c s="6" r="F10" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G10" t="n"/>
-      <c s="3" r="H10" t="n"/>
+      <c r="F10" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:10">
-      <c s="4" r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C11" t="n">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
         <v>3</v>
       </c>
-      <c s="5" r="D11" t="n">
+      <c r="D11" s="5">
         <v>4</v>
       </c>
-      <c s="4" r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
-      <c s="6" r="F11" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G11" t="n"/>
-      <c s="3" r="H11" t="n"/>
+      <c r="F11" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:10">
-      <c s="4" r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C12" t="n">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c s="5" r="D12" t="n">
+      <c r="D12" s="5">
         <v>12</v>
       </c>
-      <c s="4" r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>18</v>
       </c>
-      <c s="6" r="F12" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G12" t="n"/>
-      <c s="3" r="H12" t="n"/>
+      <c r="F12" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:10">
-      <c s="4" r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C13" t="n">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
         <v>3</v>
       </c>
-      <c s="5" r="D13" t="n">
+      <c r="D13" s="5">
         <v>19</v>
       </c>
-      <c s="4" r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>19</v>
       </c>
-      <c s="6" r="F13" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G13" t="n"/>
-      <c s="3" r="H13" t="n"/>
+      <c r="F13" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:10">
-      <c s="4" r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C14" t="n">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
         <v>4</v>
       </c>
-      <c s="5" r="D14" t="n">
+      <c r="D14" s="5">
         <v>17</v>
       </c>
-      <c s="4" r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>20</v>
       </c>
-      <c s="6" r="F14" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G14" t="n"/>
-      <c s="3" r="H14" t="n"/>
+      <c r="F14" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:10">
-      <c s="4" r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C15" t="n">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
         <v>4</v>
       </c>
-      <c s="5" r="D15" t="n">
+      <c r="D15" s="5">
         <v>24</v>
       </c>
-      <c s="4" r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>21</v>
       </c>
-      <c s="6" r="F15" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G15" t="s">
+      <c r="F15" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>22</v>
       </c>
-      <c s="3" r="H15" t="n"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c s="4" r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C16" t="n">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
         <v>5</v>
       </c>
-      <c s="5" r="D16" t="n">
+      <c r="D16" s="5">
         <v>9</v>
       </c>
-      <c s="4" r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>23</v>
       </c>
-      <c s="6" r="F16" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G16" t="n"/>
-      <c s="3" r="H16" t="n"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c s="4" r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C17" t="n">
+      <c r="F16" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
         <v>5</v>
       </c>
-      <c s="5" r="D17" t="n">
+      <c r="D17" s="5">
         <v>13</v>
       </c>
-      <c s="4" r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>24</v>
       </c>
-      <c s="6" r="F17" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G17" t="n"/>
-      <c s="3" r="H17" t="n"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c s="4" r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C18" t="n">
+      <c r="F17" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8">
         <v>5</v>
       </c>
-      <c s="5" r="D18" t="n">
+      <c r="D18" s="5">
         <v>19</v>
       </c>
-      <c s="4" r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>25</v>
       </c>
-      <c s="6" r="F18" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G18" t="n"/>
-      <c s="3" r="H18" t="n"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c s="4" r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C19" t="n">
+      <c r="F18" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
         <v>5</v>
       </c>
-      <c s="5" r="D19" t="n">
+      <c r="D19" s="5">
         <v>21</v>
       </c>
-      <c s="4" r="E19" t="s">
+      <c r="E19" s="4" t="s">
         <v>26</v>
       </c>
-      <c s="6" r="F19" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G19" t="n"/>
-      <c s="3" r="H19" t="n"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c s="4" r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C20" t="n">
+      <c r="F19" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8">
         <v>5</v>
       </c>
-      <c s="5" r="D20" t="n">
+      <c r="D20" s="5">
         <v>22</v>
       </c>
-      <c s="4" r="E20" t="s">
+      <c r="E20" s="4" t="s">
         <v>27</v>
       </c>
-      <c s="6" r="F20" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G20" t="s">
+      <c r="F20" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>22</v>
       </c>
-      <c s="3" r="H20" t="n"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c s="4" r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C21" t="n">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
         <v>6</v>
       </c>
-      <c s="5" r="D21" t="n">
-        <v>7</v>
-      </c>
-      <c s="4" r="E21" t="s">
+      <c r="D21" s="5">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>28</v>
       </c>
-      <c s="6" r="F21" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G21" t="n"/>
-      <c s="3" r="H21" t="n"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c s="4" r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C22" t="n">
+      <c r="F21" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8">
         <v>6</v>
       </c>
-      <c s="5" r="D22" t="n">
+      <c r="D22" s="5">
         <v>12</v>
       </c>
-      <c s="4" r="E22" t="s">
+      <c r="E22" s="4" t="s">
         <v>29</v>
       </c>
-      <c s="6" r="F22" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G22" t="n"/>
-      <c s="3" r="H22" t="n"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c s="4" r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C23" t="n">
+      <c r="F22" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
         <v>6</v>
       </c>
-      <c s="5" r="D23" t="n">
+      <c r="D23" s="5">
         <v>13</v>
       </c>
-      <c s="4" r="E23" t="s">
+      <c r="E23" s="4" t="s">
         <v>30</v>
       </c>
-      <c s="6" r="F23" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G23" t="n"/>
-      <c s="3" r="H23" t="n"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c s="4" r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C24" t="n">
+      <c r="F23" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8">
         <v>6</v>
       </c>
-      <c s="5" r="D24" t="n">
+      <c r="D24" s="5">
         <v>18</v>
       </c>
-      <c s="4" r="E24" t="s">
+      <c r="E24" s="4" t="s">
         <v>31</v>
       </c>
-      <c s="6" r="F24" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G24" t="n"/>
-      <c s="3" r="H24" t="n"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c s="4" r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c s="8" r="C25" t="n">
+      <c r="F24" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
         <v>6</v>
       </c>
-      <c s="5" r="D25" t="n">
+      <c r="D25" s="5">
         <v>24</v>
       </c>
-      <c s="4" r="E25" t="s">
+      <c r="E25" s="4" t="s">
         <v>32</v>
       </c>
-      <c s="6" r="F25" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G25" t="n"/>
-      <c s="3" r="H25" t="n"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c s="4" r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B26" t="n">
+      <c r="F25" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="7">
         <v>2</v>
       </c>
-      <c s="8" r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c s="5" r="D26" t="n">
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
         <v>18</v>
       </c>
-      <c s="4" r="E26" t="s">
+      <c r="E26" s="4" t="s">
         <v>33</v>
       </c>
-      <c s="6" r="F26" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G26" t="n"/>
-      <c s="3" r="H26" t="n"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c s="4" r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B27" t="n">
+      <c r="F26" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="7">
         <v>2</v>
       </c>
-      <c s="8" r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c s="5" r="D27" t="n">
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
         <v>22</v>
       </c>
-      <c s="4" r="E27" t="s">
+      <c r="E27" s="4" t="s">
         <v>34</v>
       </c>
-      <c s="6" r="F27" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G27" t="s">
+      <c r="F27" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>22</v>
       </c>
-      <c s="3" r="H27" t="n"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c s="4" r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B28" t="n">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="7">
         <v>2</v>
       </c>
-      <c s="8" r="C28" t="n">
+      <c r="C28" s="8">
         <v>4</v>
       </c>
-      <c s="5" r="D28" t="n">
+      <c r="D28" s="5">
         <v>6</v>
       </c>
-      <c s="4" r="E28" t="s">
+      <c r="E28" s="4" t="s">
         <v>35</v>
       </c>
-      <c s="6" r="F28" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c s="3" r="H28" t="n"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c s="4" r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B29" t="n">
+      <c r="F28" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="7">
         <v>2</v>
       </c>
-      <c s="8" r="C29" t="n">
+      <c r="C29" s="8">
         <v>5</v>
       </c>
-      <c s="5" r="D29" t="n">
+      <c r="D29" s="5">
         <v>3</v>
       </c>
-      <c s="4" r="E29" t="s">
+      <c r="E29" s="4" t="s">
         <v>36</v>
       </c>
-      <c s="6" r="F29" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G29" t="n"/>
-      <c s="3" r="H29" t="n"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c s="4" r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B30" t="n">
+      <c r="F29" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="7">
         <v>2</v>
       </c>
-      <c s="8" r="C30" t="n">
+      <c r="C30" s="8">
         <v>5</v>
       </c>
-      <c s="5" r="D30" t="n">
+      <c r="D30" s="5">
         <v>12</v>
       </c>
-      <c s="4" r="E30" t="s">
+      <c r="E30" s="4" t="s">
         <v>37</v>
       </c>
-      <c s="6" r="F30" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G30" t="n"/>
-      <c s="3" r="H30" t="n"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c s="4" r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c s="7" r="B31" t="n">
+      <c r="F30" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="7">
         <v>2</v>
       </c>
-      <c s="8" r="C31" t="n">
+      <c r="C31" s="8">
         <v>5</v>
       </c>
-      <c s="5" r="D31" t="n">
+      <c r="D31" s="5">
         <v>25</v>
       </c>
-      <c s="4" r="E31" t="s">
+      <c r="E31" s="4" t="s">
         <v>38</v>
       </c>
-      <c s="6" r="F31" t="n">
-        <v>10000</v>
-      </c>
-      <c s="3" r="G31" t="n"/>
-      <c s="3" r="H31" t="n"/>
+      <c r="F31" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1"/>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1"/>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>